--- a/SensitivityAnalysisSpreadSheets/Unchock Time/UnchockTime10 aircraft 9_1_+75%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Unchock Time/UnchockTime10 aircraft 9_1_+75%.xlsx
@@ -66689,6 +66689,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>13.70233333333333</v>
+      </c>
       <c r="C2" t="n">
         <v>427.1194444444445</v>
       </c>
@@ -66744,6 +66747,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>12.82716666666667</v>
+      </c>
       <c r="C3" t="n">
         <v>424.3111111111111</v>
       </c>
@@ -66799,6 +66805,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>12.757</v>
+      </c>
       <c r="C4" t="n">
         <v>434.1116666666667</v>
       </c>
@@ -66854,6 +66863,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>12.74266666666667</v>
+      </c>
       <c r="C5" t="n">
         <v>432.1</v>
       </c>
@@ -66909,6 +66921,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>12.69083333333333</v>
+      </c>
       <c r="C6" t="n">
         <v>428.0227777777777</v>
       </c>
@@ -66964,6 +66979,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>13.874</v>
+      </c>
       <c r="C7" t="n">
         <v>456.5855555555556</v>
       </c>
@@ -67019,6 +67037,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>13.98766666666667</v>
+      </c>
       <c r="C8" t="n">
         <v>425.5316666666666</v>
       </c>
@@ -67074,6 +67095,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>11.9735</v>
+      </c>
       <c r="C9" t="n">
         <v>417.2777777777778</v>
       </c>
@@ -67129,6 +67153,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>12.873</v>
+      </c>
       <c r="C10" t="n">
         <v>426.3216666666667</v>
       </c>
@@ -67184,6 +67211,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>13.7035</v>
+      </c>
       <c r="C11" t="n">
         <v>435.2583333333333</v>
       </c>
@@ -67239,6 +67269,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>12.9495</v>
+      </c>
       <c r="C12" t="n">
         <v>449.5944444444444</v>
       </c>
@@ -67294,6 +67327,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>13.253</v>
+      </c>
       <c r="C13" t="n">
         <v>435.4877777777778</v>
       </c>
@@ -67349,6 +67385,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>12.678</v>
+      </c>
       <c r="C14" t="n">
         <v>425.1261111111112</v>
       </c>
@@ -67404,6 +67443,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>13.41483333333333</v>
+      </c>
       <c r="C15" t="n">
         <v>464.1688888888888</v>
       </c>
@@ -67459,6 +67501,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>12.10833333333333</v>
+      </c>
       <c r="C16" t="n">
         <v>423.2611111111112</v>
       </c>
@@ -67514,6 +67559,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>14.2265</v>
+      </c>
       <c r="C17" t="n">
         <v>464.9261111111111</v>
       </c>
@@ -67569,6 +67617,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>13.41683333333333</v>
+      </c>
       <c r="C18" t="n">
         <v>454.9194444444445</v>
       </c>
@@ -67624,6 +67675,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>12.063</v>
+      </c>
       <c r="C19" t="n">
         <v>441.6683333333334</v>
       </c>
@@ -67679,6 +67733,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>12.944</v>
+      </c>
       <c r="C20" t="n">
         <v>433.1772222222222</v>
       </c>
@@ -67734,6 +67791,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>13.9605</v>
+      </c>
       <c r="C21" t="n">
         <v>472.0316666666666</v>
       </c>
@@ -67789,6 +67849,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>13.175</v>
+      </c>
       <c r="C22" t="n">
         <v>461.473888888889</v>
       </c>
@@ -67844,6 +67907,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>12.29116666666667</v>
+      </c>
       <c r="C23" t="n">
         <v>439.8483333333333</v>
       </c>
@@ -67899,6 +67965,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>12.937</v>
+      </c>
       <c r="C24" t="n">
         <v>420.9955555555556</v>
       </c>
@@ -67954,6 +68023,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>13.4345</v>
+      </c>
       <c r="C25" t="n">
         <v>457.8827777777777</v>
       </c>
@@ -68009,6 +68081,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>12.376</v>
+      </c>
       <c r="C26" t="n">
         <v>422.6127777777778</v>
       </c>
@@ -68064,6 +68139,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>13.7055</v>
+      </c>
       <c r="C27" t="n">
         <v>455.3488888888888</v>
       </c>
@@ -68119,6 +68197,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>13.829</v>
+      </c>
       <c r="C28" t="n">
         <v>447.5922222222222</v>
       </c>
@@ -68174,6 +68255,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>12.91716666666667</v>
+      </c>
       <c r="C29" t="n">
         <v>412.4022222222222</v>
       </c>
@@ -68229,6 +68313,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>13.0795</v>
+      </c>
       <c r="C30" t="n">
         <v>441.5594444444445</v>
       </c>
@@ -68283,6 +68370,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>13.0165</v>
       </c>
       <c r="C31" t="n">
         <v>423.9027777777777</v>
